--- a/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-procedure-imaging-document.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t xml:space="preserve">FRProcedureImagingDocument permet d'enregistrer les différents paramètres de l’acquisition d’image :
-acte d'imagerie, modalité d'acquisition, localisation anatomique / latéralité / topographie, d'autres paramètres de l'acte </t>
+acte d'imagerie, localisation anatomique / latéralité / topographie, d'autres paramètres de l'acte </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1127,6 +1127,153 @@
     <t>OBX-20</t>
   </si>
   <si>
+    <t>Procedure.bodySite.id</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension:precisionTopographique</t>
+  </si>
+  <si>
+    <t>precisionTopographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {procedure-targetBodyStructure}
+</t>
+  </si>
+  <si>
+    <t>Modificateurs topographiques</t>
+  </si>
+  <si>
+    <t>The target body site used for this procedure.  Multiple locations are allowed.</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension:precisionTopographique.id</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension:precisionTopographique.extension</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension:precisionTopographique.url</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/procedure-targetBodyStructure</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension:precisionTopographique.value[x]</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-body-structure-document)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Procedure.outcome</t>
   </si>
   <si>
@@ -1194,63 +1341,13 @@
     <t>Procedure.complication.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Procedure.complication.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>Procedure.complication.text</t>
   </si>
   <si>
     <t>Complications survenues au cours de l'acte d'imagerie</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Procedure.complicationDetail</t>
@@ -1722,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1731,7 +1828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.20703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.2890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="27.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -7483,20 +7580,18 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7521,13 +7616,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7545,7 +7640,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7557,13 +7652,13 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7574,14 +7669,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7600,16 +7695,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7647,19 +7742,19 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7671,13 +7766,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7686,14 +7781,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7702,10 +7799,10 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
@@ -7714,17 +7811,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>198</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7749,13 +7844,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7773,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7785,13 +7880,13 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7802,10 +7897,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7828,7 +7923,7 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>270</v>
@@ -7894,7 +7989,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
@@ -7914,21 +8009,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7943,14 +8038,12 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7987,10 +8080,10 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>77</v>
@@ -8017,7 +8110,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8028,10 +8121,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8039,10 +8132,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8051,29 +8144,27 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -8115,39 +8206,39 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8155,7 +8246,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
@@ -8167,23 +8258,19 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8231,7 +8318,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8240,7 +8327,7 @@
         <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>99</v>
@@ -8249,21 +8336,21 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>394</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8283,20 +8370,22 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8345,7 +8434,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8363,21 +8452,21 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8388,7 +8477,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8397,19 +8486,23 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8433,13 +8526,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8457,13 +8550,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8475,21 +8568,21 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8500,7 +8593,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8509,18 +8602,20 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8545,13 +8640,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8569,13 +8664,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8584,24 +8679,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8624,15 +8719,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8681,7 +8778,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8699,7 +8796,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8710,10 +8807,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8724,7 +8821,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8736,15 +8833,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8769,13 +8868,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8793,25 +8892,25 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8822,21 +8921,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8848,17 +8947,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8907,19 +9004,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -8936,14 +9033,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8956,26 +9053,24 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O64" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9011,19 +9106,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9041,7 +9136,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9052,10 +9147,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9066,7 +9161,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9075,19 +9170,23 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9111,13 +9210,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9135,13 +9234,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9153,21 +9252,21 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9175,7 +9274,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>
@@ -9187,19 +9286,23 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9247,10 +9350,10 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>87</v>
@@ -9265,21 +9368,21 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9302,19 +9405,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9363,7 +9464,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9381,7 +9482,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9392,10 +9493,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9421,14 +9522,12 @@
         <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9456,10 +9555,10 @@
         <v>202</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9477,7 +9576,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9495,17 +9594,1037 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9515,7 +10634,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
